--- a/Assets/Excel/TaskData_3.xlsx
+++ b/Assets/Excel/TaskData_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15150" windowHeight="11025"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -827,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -842,9 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,14 +1159,14 @@
   <sheetPr/>
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D79" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="24.2416666666667" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
@@ -1840,7 +1837,7 @@
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="1">
@@ -1860,7 +1857,7 @@
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="1">
@@ -1880,7 +1877,7 @@
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="1">
@@ -1900,7 +1897,7 @@
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="1">
@@ -1920,7 +1917,7 @@
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="1">
@@ -1940,7 +1937,7 @@
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="1">
@@ -1960,7 +1957,7 @@
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="1">
@@ -1980,7 +1977,7 @@
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="1">
@@ -2000,7 +1997,7 @@
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="1">
@@ -2020,7 +2017,7 @@
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="1">
@@ -2040,7 +2037,7 @@
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="1">
@@ -2060,7 +2057,7 @@
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="1">
@@ -2080,7 +2077,7 @@
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="1">
@@ -2100,7 +2097,7 @@
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="1">
@@ -2120,7 +2117,7 @@
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="1">
@@ -2140,7 +2137,7 @@
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C49" s="1">
@@ -2160,7 +2157,7 @@
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="1">
@@ -2180,7 +2177,7 @@
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="1">
@@ -2200,7 +2197,7 @@
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="1">
@@ -2220,7 +2217,7 @@
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="1">
@@ -2240,7 +2237,7 @@
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="1">
@@ -2260,7 +2257,7 @@
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C55" s="1">
@@ -2280,7 +2277,7 @@
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="1">
@@ -2300,7 +2297,7 @@
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C57" s="1">
@@ -2320,7 +2317,7 @@
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C58" s="1">
@@ -2340,7 +2337,7 @@
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C59" s="1">
@@ -2360,7 +2357,7 @@
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C60" s="1">
@@ -2380,7 +2377,7 @@
       <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C61" s="1">
@@ -2400,7 +2397,7 @@
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="1">
@@ -2420,10 +2417,10 @@
       <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>10</v>
       </c>
       <c r="D63" s="1">
@@ -2440,7 +2437,7 @@
       <c r="A64" s="1">
         <v>61</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="1">
@@ -2460,7 +2457,7 @@
       <c r="A65" s="1">
         <v>62</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="1">
@@ -2480,7 +2477,7 @@
       <c r="A66" s="1">
         <v>63</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="1">
@@ -2500,7 +2497,7 @@
       <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="1">
@@ -2520,7 +2517,7 @@
       <c r="A68" s="1">
         <v>65</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C68" s="1">
@@ -2540,7 +2537,7 @@
       <c r="A69" s="1">
         <v>66</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="1">
@@ -2560,7 +2557,7 @@
       <c r="A70" s="1">
         <v>67</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C70" s="1">
@@ -2580,7 +2577,7 @@
       <c r="A71" s="1">
         <v>68</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C71" s="1">
@@ -2600,7 +2597,7 @@
       <c r="A72" s="1">
         <v>69</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C72" s="1">
@@ -2620,7 +2617,7 @@
       <c r="A73" s="1">
         <v>70</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C73" s="1">
@@ -2640,7 +2637,7 @@
       <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C74" s="1">
@@ -2660,7 +2657,7 @@
       <c r="A75" s="1">
         <v>72</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="1">
@@ -2680,7 +2677,7 @@
       <c r="A76" s="1">
         <v>73</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C76" s="1">
@@ -2700,7 +2697,7 @@
       <c r="A77" s="1">
         <v>74</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="1">
@@ -2720,7 +2717,7 @@
       <c r="A78" s="1">
         <v>75</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C78" s="1">
@@ -2740,7 +2737,7 @@
       <c r="A79" s="1">
         <v>76</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C79" s="1">
@@ -2760,7 +2757,7 @@
       <c r="A80" s="1">
         <v>77</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C80" s="1">
@@ -2780,7 +2777,7 @@
       <c r="A81" s="1">
         <v>78</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C81" s="1">
@@ -2800,7 +2797,7 @@
       <c r="A82" s="1">
         <v>79</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C82" s="1">
@@ -2820,7 +2817,7 @@
       <c r="A83" s="1">
         <v>80</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C83" s="1">
@@ -2840,7 +2837,7 @@
       <c r="A84" s="1">
         <v>81</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C84" s="1">
@@ -2860,7 +2857,7 @@
       <c r="A85" s="1">
         <v>82</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C85" s="1">
@@ -2880,7 +2877,7 @@
       <c r="A86" s="1">
         <v>83</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C86" s="1">
@@ -2900,7 +2897,7 @@
       <c r="A87" s="1">
         <v>84</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C87" s="1">
@@ -2920,7 +2917,7 @@
       <c r="A88" s="1">
         <v>85</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C88" s="1">
@@ -2940,7 +2937,7 @@
       <c r="A89" s="1">
         <v>86</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="1">
@@ -2960,7 +2957,7 @@
       <c r="A90" s="1">
         <v>87</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C90" s="1">
@@ -2980,7 +2977,7 @@
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C91" s="1">
@@ -3000,7 +2997,7 @@
       <c r="A92" s="1">
         <v>89</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C92" s="1">
@@ -3020,7 +3017,7 @@
       <c r="A93" s="1">
         <v>90</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C93" s="1">
@@ -3033,7 +3030,7 @@
         <v>6</v>
       </c>
       <c r="F93" s="1">
-        <v>500000</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
